--- a/summary/Antibiotics.xlsx
+++ b/summary/Antibiotics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzherrmann/Projects/Antibiotic_resistance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzherrmann/Projects/Antibiotic_resistance/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{861F9064-4056-FF4F-B115-A1D4EFCB8883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF3CAE49-8B16-4742-A984-EAAB52CF74FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24840" windowHeight="15540" activeTab="1" xr2:uid="{6CBB5186-A406-1F4B-88AA-43D8A772DA83}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24820" windowHeight="15540" activeTab="4" xr2:uid="{6CBB5186-A406-1F4B-88AA-43D8A772DA83}"/>
   </bookViews>
   <sheets>
     <sheet name="Overwiev" sheetId="1" r:id="rId1"/>
@@ -1237,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FECF97-EA45-D84A-A76A-7FF25054C908}">
   <dimension ref="A1:EM6"/>
   <sheetViews>
-    <sheetView topLeftCell="EF1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="BI4" sqref="BI4"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3917,7 +3917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EC58CC-69A1-654B-BD01-D6881D241EEE}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5044,7 +5044,7 @@
   <dimension ref="A1:BT9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6647,10 +6647,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A8E22-2882-3F4B-90E8-C19E3C5DE0EB}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7301,6 +7301,11 @@
         <v>148</v>
       </c>
     </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
